--- a/updata/output.xlsx
+++ b/updata/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Unnamed: 14</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
-    <t>des</t>
+    <t>Unnamed: 2</t>
   </si>
   <si>
     <t>com</t>
@@ -67,10 +67,31 @@
     <t>SR0488</t>
   </si>
   <si>
-    <t>鑫业</t>
-  </si>
-  <si>
-    <t>五海</t>
+    <t>Matrix Trench</t>
+  </si>
+  <si>
+    <t>Wrangler Shearling Jacket</t>
+  </si>
+  <si>
+    <t>Yellowstone Jacket</t>
+  </si>
+  <si>
+    <t>Sinatra Coat</t>
+  </si>
+  <si>
+    <t>Madonna Coat</t>
+  </si>
+  <si>
+    <t>Sun Valley Sherpa</t>
+  </si>
+  <si>
+    <t>Loveshack Jacket</t>
+  </si>
+  <si>
+    <t>Xinye</t>
+  </si>
+  <si>
+    <t>Wuhai</t>
   </si>
   <si>
     <t>akira</t>
@@ -480,17 +501,20 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2">
-        <v>45453</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -503,17 +527,20 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2">
-        <v>45524</v>
+        <v>45510</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -526,17 +553,20 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2">
-        <v>45524</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -549,17 +579,20 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2">
-        <v>45524</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,17 +605,20 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2">
-        <v>45457</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -595,17 +631,20 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>200</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2">
-        <v>45458</v>
+        <v>45514</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -618,17 +657,20 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>200</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2">
-        <v>45459</v>
+        <v>45515</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -641,17 +683,20 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2">
-        <v>45460</v>
+        <v>45516</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -664,17 +709,20 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>200</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J10" s="2">
-        <v>45461</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -687,17 +735,20 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <v>200</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2">
-        <v>45462</v>
+        <v>45518</v>
       </c>
     </row>
   </sheetData>
